--- a/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
+++ b/InputData/elec/BGrBSC/BAU Grid Battery Storage Cap.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-india-wipC\InputData\elec\BGrBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BGrBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10843493-661A-4DE5-B438-066FB4B039DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22035" windowHeight="11565"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="IESS" sheetId="5" r:id="rId2"/>
+    <sheet name="IESS+IEA+CEA" sheetId="5" r:id="rId2"/>
     <sheet name="Calcs" sheetId="6" r:id="rId3"/>
     <sheet name="BGrBSC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -31,9 +40,6 @@
   </si>
   <si>
     <t>Battery Storage Capacity (MW)</t>
-  </si>
-  <si>
-    <t>hard coal</t>
   </si>
   <si>
     <t>Trajectory assumptions</t>
@@ -90,9 +96,6 @@
     <t>NITI Aayog</t>
   </si>
   <si>
-    <t>India Energy Security Scenarios</t>
-  </si>
-  <si>
     <t>http://indiaenergy.gov.in/iess/docs/IESS_Version2.2.xlsx</t>
   </si>
   <si>
@@ -101,11 +104,65 @@
   <si>
     <t>BGrBSC BAU Grid Battery Storage Capacity</t>
   </si>
+  <si>
+    <t>http://cea.nic.in/reports/others/planning/irp/Optimal_generation_mix_report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IESS Trajectory </t>
+  </si>
+  <si>
+    <t>IEA-NPS</t>
+  </si>
+  <si>
+    <t>CEA (optimal gen mix)</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/newsroom/news/2019/february/battery-storage-is-almost-ready-to-play-the-flexibility-game.html</t>
+  </si>
+  <si>
+    <t>India Energy Security Scenarios v2</t>
+  </si>
+  <si>
+    <t>Optimal Generation Mix report for 2030</t>
+  </si>
+  <si>
+    <t>CEA</t>
+  </si>
+  <si>
+    <t>IEA</t>
+  </si>
+  <si>
+    <t>India projections for IEA's New Policies Scenario</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>CEA's Optimal Generation Mix report for 2030 projects 34 GW battery storage by 2029-30, with their model including it from 2026-27 onwards</t>
+  </si>
+  <si>
+    <t>Since battery costs are projected to fall significantly by 2030, something which is accounted for in CEA's model for the optimal generation mix,</t>
+  </si>
+  <si>
+    <t>Instead, we start the projections with more conservative levels (i.e. IESS BAU Level 2 trajectory of 5 GW for 2022)</t>
+  </si>
+  <si>
+    <t>we use CEA's 34 GW official target for 2030, and as per IEES's Level 4 till 2047</t>
+  </si>
+  <si>
+    <t>This is in the range comparable to IESS's heroic effort trajectory (Level 4) and also with IEA's India-projections for 2030 in the New Policies Scenario</t>
+  </si>
+  <si>
+    <t>However, since cost is still a barrier in the immediate future, it would not be realistic to use IESS's Level 4 values for the 2020-30 period</t>
+  </si>
+  <si>
+    <t>Values from 2014-19 are held to be zero due to lack of battery storage in current actuals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -720,7 +777,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -818,62 +875,65 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="24" xfId="52" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="23" fillId="17" borderId="24" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Accent1 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent4 2" xfId="6"/>
-    <cellStyle name="20% - Accent5 2" xfId="7"/>
-    <cellStyle name="20% - Accent6 2" xfId="8"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="10"/>
-    <cellStyle name="40% - Accent3 2" xfId="11"/>
-    <cellStyle name="40% - Accent4 2" xfId="12"/>
-    <cellStyle name="40% - Accent5 2" xfId="13"/>
-    <cellStyle name="40% - Accent6 2" xfId="14"/>
-    <cellStyle name="60% - Accent1 2" xfId="15"/>
-    <cellStyle name="60% - Accent2 2" xfId="16"/>
-    <cellStyle name="60% - Accent3 2" xfId="17"/>
-    <cellStyle name="60% - Accent4 2" xfId="18"/>
-    <cellStyle name="60% - Accent5 2" xfId="19"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="22"/>
-    <cellStyle name="Accent3 2" xfId="23"/>
-    <cellStyle name="Accent4 2" xfId="24"/>
-    <cellStyle name="Accent5 2" xfId="25"/>
-    <cellStyle name="Accent6 2" xfId="26"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Calculation 2" xfId="28"/>
-    <cellStyle name="Check Cell 2" xfId="29"/>
-    <cellStyle name="Comma 8" xfId="53"/>
-    <cellStyle name="Euro" xfId="30"/>
-    <cellStyle name="Explanatory Text 2" xfId="31"/>
-    <cellStyle name="Good 2" xfId="32"/>
-    <cellStyle name="Heading 1 2" xfId="33"/>
-    <cellStyle name="Heading 2 2" xfId="34"/>
-    <cellStyle name="Heading 3 2" xfId="35"/>
-    <cellStyle name="Heading 4 2" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Comma 8" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Euro" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Good 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="37"/>
-    <cellStyle name="Linked Cell 2" xfId="38"/>
-    <cellStyle name="Neutral 2" xfId="39"/>
+    <cellStyle name="Input 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Neutral 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 15" xfId="52"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="45"/>
-    <cellStyle name="Normal 2 3" xfId="48"/>
-    <cellStyle name="Normal 2 4" xfId="49"/>
-    <cellStyle name="Normal 2 5" xfId="50"/>
-    <cellStyle name="Normal 2 6" xfId="51"/>
-    <cellStyle name="Normal 3" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="47"/>
-    <cellStyle name="Note 2" xfId="40"/>
-    <cellStyle name="Output 2" xfId="41"/>
-    <cellStyle name="Title 2" xfId="42"/>
-    <cellStyle name="Total 2" xfId="43"/>
-    <cellStyle name="Warning Text 2" xfId="44"/>
+    <cellStyle name="Normal 15" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 2 5" xfId="50" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 2 6" xfId="51" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Note 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Output 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Title 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Total 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Warning Text 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -886,6 +946,1050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calcs!$F$1:$AJ$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calcs!$F$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666669698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333334849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.166666666667879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.583333333332121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.333333333333485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.666666666666515</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.333333333333485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.666666666666515</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.333333333333485</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.666666666666515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.333333333333485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.666666666666515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EF6-4F78-AFAA-8BA97F69286E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="867164048"/>
+        <c:axId val="562374864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="867164048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="562374864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="562374864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="867164048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F97D49-6947-419A-91BA-4BC405CEC415}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,6 +2068,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -999,6 +2120,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,10 +2312,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1186,7 +2326,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -1194,116 +2334,188 @@
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1"/>
+    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="49">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="49" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://www.npti.in/Download/Renewable/POWERGEN%20PRSTN_Renewable%20April2012/Solar%20Resource%20CUF%20Assessment.pdf" xr:uid="{8B1A7767-A874-49E1-B22F-87D35F6CC256}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{706BDB2D-71CB-4FC8-A784-36469CC329EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" s="4">
         <v>2017</v>
       </c>
@@ -1325,43 +2537,169 @@
       <c r="H1" s="4">
         <v>2047</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <f>G13*$G$48</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4">
+        <f>H13*$H$48</f>
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="4">
+        <f>I13*$I$48</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="E2" s="4">
+        <f>J13*$J$48</f>
+        <v>3.6</v>
+      </c>
+      <c r="F2" s="4">
+        <f>K13*$K$48</f>
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="4">
+        <f>L13*$L$48</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <f>M13*$M$48</f>
+        <v>7.5</v>
+      </c>
+      <c r="M2" s="4">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>G14*$G$48</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C5" si="0">H14*$H$48</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D5" si="1">I14*$I$48</f>
+        <v>8.75</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E5" si="2">J14*$J$48</f>
+        <v>15.75</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F5" si="3">K14*$K$48</f>
+        <v>22.5</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G5" si="4">L14*$L$48</f>
+        <v>27.5</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H5" si="5">M14*$M$48</f>
+        <v>37.5</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <f>G13*G48</f>
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="4">
-        <f t="shared" ref="C2:H2" si="0">H13*H48</f>
-        <v>1.25</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B5" si="6">G15*$G$48</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="E2" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1377,7 +2715,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1393,7 +2731,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -1409,10 +2747,10 @@
       <c r="M9" s="13"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="16"/>
@@ -1427,7 +2765,7 @@
       <c r="M10" s="13"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1441,17 +2779,17 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>1</v>
@@ -1483,7 +2821,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="21">
         <v>1</v>
@@ -1517,7 +2855,7 @@
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="21">
         <v>2</v>
@@ -1551,7 +2889,7 @@
       </c>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="21">
         <v>3</v>
@@ -1585,7 +2923,7 @@
       </c>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="24">
         <v>4</v>
@@ -1622,7 +2960,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -1672,7 +3010,7 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="16"/>
@@ -1703,17 +3041,17 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>1</v>
@@ -1884,7 +3222,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -1945,7 +3283,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28" s="14"/>
     </row>
@@ -1968,7 +3306,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="16"/>
@@ -1997,17 +3335,17 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>1</v>
@@ -2178,7 +3516,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -2275,7 +3613,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2309,7 +3647,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -2339,7 +3677,7 @@
       <c r="K45" s="37"/>
       <c r="L45" s="37"/>
       <c r="M45" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N45" s="37"/>
     </row>
@@ -2380,7 +3718,7 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="37"/>
       <c r="B47" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
@@ -2414,7 +3752,7 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="37"/>
       <c r="B48" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
@@ -2448,7 +3786,7 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -2497,13 +3835,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -2518,7 +3856,7 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="43"/>
       <c r="D52" s="44">
@@ -2538,7 +3876,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="45">
@@ -2558,7 +3896,7 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="48">
@@ -2613,10 +3951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2734,147 +4074,143 @@
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8">
-        <f>TREND($C2:$D2,$C$1:$D$1,B$1)</f>
-        <v>0.34999999999996589</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>IESS!B2</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>($H2-$C2)/5+C2</f>
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f t="shared" ref="E2:G2" si="0">($H2-$C2)/5+D2</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
+        <f>FORECAST(F1,$B$8:$B$11,$A$8:$A$11)</f>
+        <v>1.6666666666669698</v>
+      </c>
+      <c r="G2" s="8">
+        <f>FORECAST(G1,$B$8:$B$11,$A$8:$A$11)</f>
+        <v>3.3333333333334849</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'IESS+IEA+CEA'!C3</f>
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <f>FORECAST(I1,$B$11:$B$16,$A$11:$A$16)</f>
+        <v>5.75</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:L2" si="0">FORECAST(J1,$B$11:$B$16,$A$11:$A$16)</f>
+        <v>6.5</v>
+      </c>
+      <c r="K2" s="8">
         <f t="shared" si="0"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="G2" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="L2" s="8">
         <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2" s="8">
-        <f>C2*IESS!C2/IESS!B2</f>
-        <v>1.25</v>
-      </c>
-      <c r="I2" s="8">
-        <f>($M2-$H2)/5+H2</f>
-        <v>1.42</v>
-      </c>
-      <c r="J2" s="8">
-        <f t="shared" ref="J2:L2" si="1">($M2-$H2)/5+I2</f>
-        <v>1.5899999999999999</v>
-      </c>
-      <c r="K2" s="8">
+        <v>8</v>
+      </c>
+      <c r="M2" s="8">
+        <f>'IESS+IEA+CEA'!D3</f>
+        <v>8.75</v>
+      </c>
+      <c r="N2" s="8">
+        <f>FORECAST(N1,$B$16:$B$19,$A$16:$A$19)</f>
+        <v>17.166666666667879</v>
+      </c>
+      <c r="O2" s="8">
+        <f>FORECAST(O1,$B$16:$B$19,$A$16:$A$19)</f>
+        <v>25.583333333332121</v>
+      </c>
+      <c r="P2" s="8">
+        <f>'IESS+IEA+CEA'!N3</f>
+        <v>34</v>
+      </c>
+      <c r="Q2" s="8">
+        <f>FORECAST(Q1,$B$19:$B$31,$A$19:$A$31)</f>
+        <v>35.333333333333485</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" ref="R2:AA2" si="1">FORECAST(R1,$B$19:$B$31,$A$19:$A$31)</f>
+        <v>36.666666666666515</v>
+      </c>
+      <c r="S2" s="8">
         <f t="shared" si="1"/>
-        <v>1.7599999999999998</v>
-      </c>
-      <c r="L2" s="8">
+        <v>38</v>
+      </c>
+      <c r="T2" s="8">
         <f t="shared" si="1"/>
-        <v>1.9299999999999997</v>
-      </c>
-      <c r="M2" s="8">
-        <f>H2*IESS!D2/IESS!C2</f>
-        <v>2.0999999999999996</v>
-      </c>
-      <c r="N2" s="8">
-        <f>($R2-$M2)/5+M2</f>
-        <v>2.4</v>
-      </c>
-      <c r="O2" s="8">
-        <f t="shared" ref="O2:Q2" si="2">($R2-$M2)/5+N2</f>
-        <v>2.7</v>
-      </c>
-      <c r="P2" s="8">
+        <v>39.333333333333485</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" si="1"/>
+        <v>40.666666666666515</v>
+      </c>
+      <c r="V2" s="8">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="W2" s="8">
+        <f t="shared" si="1"/>
+        <v>43.333333333333485</v>
+      </c>
+      <c r="X2" s="8">
+        <f t="shared" si="1"/>
+        <v>44.666666666666515</v>
+      </c>
+      <c r="Y2" s="8">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="Z2" s="8">
+        <f t="shared" si="1"/>
+        <v>47.333333333333485</v>
+      </c>
+      <c r="AA2" s="8">
+        <f t="shared" si="1"/>
+        <v>48.666666666666515</v>
+      </c>
+      <c r="AB2" s="8">
+        <f>'IESS+IEA+CEA'!G5</f>
+        <v>50</v>
+      </c>
+      <c r="AC2" s="8">
+        <f>FORECAST(AC1,$B$31:$B$36,$A$31:$A$36)</f>
+        <v>53</v>
+      </c>
+      <c r="AD2" s="8">
+        <f t="shared" ref="AD2:AF2" si="2">FORECAST(AD1,$B$31:$B$36,$A$31:$A$36)</f>
+        <v>56</v>
+      </c>
+      <c r="AE2" s="8">
         <f t="shared" si="2"/>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="8">
         <f t="shared" si="2"/>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="R2" s="8">
-        <f>M2*IESS!E2/IESS!D2</f>
-        <v>3.6</v>
-      </c>
-      <c r="S2" s="8">
-        <f>($W2-$R2)/5+R2</f>
-        <v>3.7800000000000002</v>
-      </c>
-      <c r="T2" s="8">
-        <f t="shared" ref="T2:V2" si="3">($W2-$R2)/5+S2</f>
-        <v>3.9600000000000004</v>
-      </c>
-      <c r="U2" s="8">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="8">
+        <f>'IESS+IEA+CEA'!H5</f>
+        <v>65</v>
+      </c>
+      <c r="AH2" s="8">
+        <f>AG2+(AG2-AF2)</f>
+        <v>68</v>
+      </c>
+      <c r="AI2" s="8">
+        <f t="shared" ref="AI2:AJ2" si="3">AH2+(AH2-AG2)</f>
+        <v>71</v>
+      </c>
+      <c r="AJ2" s="8">
         <f t="shared" si="3"/>
-        <v>4.1400000000000006</v>
-      </c>
-      <c r="V2" s="8">
-        <f t="shared" si="3"/>
-        <v>4.32</v>
-      </c>
-      <c r="W2" s="8">
-        <f>R2*IESS!F2/IESS!E2</f>
-        <v>4.5</v>
-      </c>
-      <c r="X2" s="8">
-        <f>($AB2-$W2)/5+W2</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Y2" s="8">
-        <f t="shared" ref="Y2:AA2" si="4">($AB2-$W2)/5+X2</f>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="Z2" s="8">
-        <f t="shared" si="4"/>
-        <v>4.7999999999999989</v>
-      </c>
-      <c r="AA2" s="8">
-        <f t="shared" si="4"/>
-        <v>4.8999999999999986</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>W2*IESS!G2/IESS!F2</f>
-        <v>5</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>($AG2-$AB2)/5+AB2</f>
-        <v>5.5</v>
-      </c>
-      <c r="AD2" s="8">
-        <f t="shared" ref="AD2:AJ2" si="5">($AG2-$AB2)/5+AC2</f>
-        <v>6</v>
-      </c>
-      <c r="AE2" s="8">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
-      <c r="AF2" s="8">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>AB2*IESS!H2/IESS!G2</f>
-        <v>7.5</v>
-      </c>
-      <c r="AH2" s="8">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AI2" s="8">
-        <f t="shared" si="5"/>
-        <v>8.5</v>
-      </c>
-      <c r="AJ2" s="8">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
@@ -2958,7 +4294,12 @@
       <c r="AL4" s="8"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="A5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2997,7 +4338,12 @@
       <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+      <c r="A6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3036,7 +4382,12 @@
       <c r="AL6" s="8"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+      <c r="A7" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3075,7 +4426,12 @@
       <c r="AL7" s="8"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
+      <c r="A8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -3114,6 +4470,9 @@
       <c r="AL8" s="8"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2020</v>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3153,6 +4512,9 @@
       <c r="AL9" s="8"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2021</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3192,7 +4554,12 @@
       <c r="AL10" s="8"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+      <c r="A11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3231,6 +4598,9 @@
       <c r="AL11" s="8"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>2023</v>
+      </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3270,6 +4640,9 @@
       <c r="AL12" s="8"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>2024</v>
+      </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3309,6 +4682,9 @@
       <c r="AL13" s="8"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>2025</v>
+      </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3347,19 +4723,159 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>2027</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>2030</v>
+      </c>
+      <c r="B19" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>2042</v>
+      </c>
+      <c r="B31" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>2047</v>
+      </c>
+      <c r="B36" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3373,323 +4889,335 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>2016</v>
-      </c>
-      <c r="B2" s="6">
-        <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A2,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>349.99999999996589</v>
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="B3" s="6">
-        <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A3,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>500</v>
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A4,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A5,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A6,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>950.00000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A7,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A8,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1250</v>
+        <v>1666.6666666669698</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A9,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1420</v>
+        <v>3333.3333333334849</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A10,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1589.9999999999998</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A11,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1759.9999999999998</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B12" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A12,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>1929.9999999999998</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B13" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A13,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>2099.9999999999995</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B14" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A14,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>2400</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B15" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A15,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>2700</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="B16" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A16,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>3000.0000000000005</v>
+        <v>17166.666666667879</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B17" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A17,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>3300.0000000000009</v>
+        <v>25583.333333332121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B18" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A18,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>3600</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B19" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A19,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>3780.0000000000005</v>
+        <v>35333.333333333489</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B20" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A20,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>3960.0000000000005</v>
+        <v>36666.666666666511</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B21" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A21,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4140.0000000000009</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B22" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A22,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4320</v>
+        <v>39333.333333333489</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B23" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A23,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4500</v>
+        <v>40666.666666666511</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B24" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A24,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4600</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B25" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A25,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4699.9999999999991</v>
+        <v>43333.333333333489</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B26" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A26,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4799.9999999999991</v>
+        <v>44666.666666666511</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B27" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A27,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>4899.9999999999982</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B28" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A28,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>5000</v>
+        <v>47333.333333333489</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B29" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A29,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>5500</v>
+        <v>48666.666666666511</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B30" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A30,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>6000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B31" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A31,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>6500</v>
+        <v>53000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B32" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A32,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>7000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B33" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A33,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>7500</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B34" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A34,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>8000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B35" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A35,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>8500</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B36" s="6">
         <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A36,Calcs!$B$1:$AJ$1,0))*10^3</f>
-        <v>9000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="4">
+        <v>2049</v>
+      </c>
+      <c r="B37" s="6">
+        <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A37,Calcs!$B$1:$AJ$1,0))*10^3</f>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2050</v>
+      </c>
+      <c r="B38" s="6">
+        <f>INDEX(Calcs!$B$2:$AJ$2,1,MATCH(A38,Calcs!$B$1:$AJ$1,0))*10^3</f>
+        <v>74000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
